--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H2">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I2">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J2">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>27.28402027616772</v>
+        <v>39.16036113530401</v>
       </c>
       <c r="R2">
-        <v>27.28402027616772</v>
+        <v>352.4432502177361</v>
       </c>
       <c r="S2">
-        <v>0.0005112121668481596</v>
+        <v>0.0006640936193257773</v>
       </c>
       <c r="T2">
-        <v>0.0005112121668481596</v>
+        <v>0.0006640936193257772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H3">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I3">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J3">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>2282.16949990059</v>
+        <v>2573.738729014933</v>
       </c>
       <c r="R3">
-        <v>2282.16949990059</v>
+        <v>23163.6485611344</v>
       </c>
       <c r="S3">
-        <v>0.04276029717578084</v>
+        <v>0.0436462641865058</v>
       </c>
       <c r="T3">
-        <v>0.04276029717578084</v>
+        <v>0.04364626418650579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H4">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I4">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J4">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>8.417123300291362</v>
+        <v>13.064010314148</v>
       </c>
       <c r="R4">
-        <v>8.417123300291362</v>
+        <v>117.576092827332</v>
       </c>
       <c r="S4">
-        <v>0.0001577090105276254</v>
+        <v>0.0002215435619313137</v>
       </c>
       <c r="T4">
-        <v>0.0001577090105276254</v>
+        <v>0.0002215435619313136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H5">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I5">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J5">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>20.90540581440747</v>
+        <v>24.56052399100801</v>
       </c>
       <c r="R5">
-        <v>20.90540581440747</v>
+        <v>221.044715919072</v>
       </c>
       <c r="S5">
-        <v>0.0003916980597818429</v>
+        <v>0.0004165050269422004</v>
       </c>
       <c r="T5">
-        <v>0.0003916980597818429</v>
+        <v>0.0004165050269422003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H6">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I6">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J6">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>123.9294699856485</v>
+        <v>142.369329177</v>
       </c>
       <c r="R6">
-        <v>123.9294699856485</v>
+        <v>1281.323962593</v>
       </c>
       <c r="S6">
-        <v>0.002322027774735476</v>
+        <v>0.002414343493091563</v>
       </c>
       <c r="T6">
-        <v>0.002322027774735476</v>
+        <v>0.002414343493091562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H7">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I7">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J7">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>800.5973092664615</v>
+        <v>1109.094937925508</v>
       </c>
       <c r="R7">
-        <v>800.5973092664615</v>
+        <v>9981.854441329575</v>
       </c>
       <c r="S7">
-        <v>0.01500054174935543</v>
+        <v>0.01880837791454477</v>
       </c>
       <c r="T7">
-        <v>0.01500054174935543</v>
+        <v>0.01880837791454476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H8">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I8">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J8">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>129.1960361135155</v>
+        <v>166.27818256614</v>
       </c>
       <c r="R8">
-        <v>129.1960361135155</v>
+        <v>1496.50364309526</v>
       </c>
       <c r="S8">
-        <v>0.002420705779473207</v>
+        <v>0.002819797286693308</v>
       </c>
       <c r="T8">
-        <v>0.002420705779473207</v>
+        <v>0.002819797286693307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H9">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I9">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J9">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>10806.59118934412</v>
+        <v>10928.31081873954</v>
       </c>
       <c r="R9">
-        <v>10806.59118934412</v>
+        <v>98354.79736865585</v>
       </c>
       <c r="S9">
-        <v>0.202479724110614</v>
+        <v>0.1853257037047866</v>
       </c>
       <c r="T9">
-        <v>0.202479724110614</v>
+        <v>0.1853257037047865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H10">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I10">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J10">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>39.85699156022982</v>
+        <v>55.47088507576334</v>
       </c>
       <c r="R10">
-        <v>39.85699156022982</v>
+        <v>499.23796568187</v>
       </c>
       <c r="S10">
-        <v>0.0007467880031357241</v>
+        <v>0.0009406925720089364</v>
       </c>
       <c r="T10">
-        <v>0.0007467880031357241</v>
+        <v>0.0009406925720089363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H11">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I11">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J11">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>98.99184714083674</v>
+        <v>104.28604777128</v>
       </c>
       <c r="R11">
-        <v>98.99184714083674</v>
+        <v>938.5744299415201</v>
       </c>
       <c r="S11">
-        <v>0.001854779323755765</v>
+        <v>0.001768515327790851</v>
       </c>
       <c r="T11">
-        <v>0.001854779323755765</v>
+        <v>0.001768515327790851</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H12">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I12">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J12">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>586.8342025013184</v>
+        <v>604.5121296741667</v>
       </c>
       <c r="R12">
-        <v>586.8342025013184</v>
+        <v>5440.6091670675</v>
       </c>
       <c r="S12">
-        <v>0.01099532917820599</v>
+        <v>0.0102515052589679</v>
       </c>
       <c r="T12">
-        <v>0.01099532917820599</v>
+        <v>0.0102515052589679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H13">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I13">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J13">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>3791.010189606169</v>
+        <v>4709.310262343364</v>
       </c>
       <c r="R13">
-        <v>3791.010189606169</v>
+        <v>42383.79236109027</v>
       </c>
       <c r="S13">
-        <v>0.07103097395308902</v>
+        <v>0.07986195239216484</v>
       </c>
       <c r="T13">
-        <v>0.07103097395308902</v>
+        <v>0.07986195239216483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H14">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I14">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J14">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>61.9729385852337</v>
+        <v>88.05559624912202</v>
       </c>
       <c r="R14">
-        <v>61.9729385852337</v>
+        <v>792.5003662420982</v>
       </c>
       <c r="S14">
-        <v>0.001161167595516652</v>
+        <v>0.001493274268154034</v>
       </c>
       <c r="T14">
-        <v>0.001161167595516652</v>
+        <v>0.001493274268154034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H15">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I15">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J15">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>5183.721050888264</v>
+        <v>5787.283155786658</v>
       </c>
       <c r="R15">
-        <v>5183.721050888264</v>
+        <v>52085.54840207992</v>
       </c>
       <c r="S15">
-        <v>0.09712576240370767</v>
+        <v>0.09814255296855889</v>
       </c>
       <c r="T15">
-        <v>0.09712576240370767</v>
+        <v>0.09814255296855888</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H16">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I16">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J16">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>19.11865847017192</v>
+        <v>29.37560288686678</v>
       </c>
       <c r="R16">
-        <v>19.11865847017192</v>
+        <v>264.380425981801</v>
       </c>
       <c r="S16">
-        <v>0.000358220332811573</v>
+        <v>0.0004981606368136643</v>
       </c>
       <c r="T16">
-        <v>0.000358220332811573</v>
+        <v>0.0004981606368136642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H17">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I17">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J17">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>47.48455020638314</v>
+        <v>55.22654851794401</v>
       </c>
       <c r="R17">
-        <v>47.48455020638314</v>
+        <v>497.0389366614961</v>
       </c>
       <c r="S17">
-        <v>0.0008897031873275293</v>
+        <v>0.0009365490364461462</v>
       </c>
       <c r="T17">
-        <v>0.0008897031873275293</v>
+        <v>0.0009365490364461461</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H18">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I18">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J18">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>281.4934659402005</v>
+        <v>320.1302491811389</v>
       </c>
       <c r="R18">
-        <v>281.4934659402005</v>
+        <v>2881.17224263025</v>
       </c>
       <c r="S18">
-        <v>0.005274255158158861</v>
+        <v>0.005428868623039962</v>
       </c>
       <c r="T18">
-        <v>0.005274255158158861</v>
+        <v>0.005428868623039962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H19">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I19">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J19">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>1818.477166358516</v>
+        <v>2493.89978091568</v>
       </c>
       <c r="R19">
-        <v>1818.477166358516</v>
+        <v>22445.09802824113</v>
       </c>
       <c r="S19">
-        <v>0.0340722387378541</v>
+        <v>0.04229233040067572</v>
       </c>
       <c r="T19">
-        <v>0.0340722387378541</v>
+        <v>0.04229233040067571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H20">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I20">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J20">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>75.17658966594065</v>
+        <v>101.366410657908</v>
       </c>
       <c r="R20">
-        <v>75.17658966594065</v>
+        <v>912.297695921172</v>
       </c>
       <c r="S20">
-        <v>0.001408560282186482</v>
+        <v>0.001719003210907202</v>
       </c>
       <c r="T20">
-        <v>0.001408560282186482</v>
+        <v>0.001719003210907201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H21">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I21">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J21">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>6288.139295659899</v>
+        <v>6662.110597756738</v>
       </c>
       <c r="R21">
-        <v>6288.139295659899</v>
+        <v>59958.99537981064</v>
       </c>
       <c r="S21">
-        <v>0.1178189021353737</v>
+        <v>0.1129781496122187</v>
       </c>
       <c r="T21">
-        <v>0.1178189021353737</v>
+        <v>0.1129781496122187</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H22">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I22">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J22">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>23.19198630219278</v>
+        <v>33.81612926825711</v>
       </c>
       <c r="R22">
-        <v>23.19198630219278</v>
+        <v>304.345163414314</v>
       </c>
       <c r="S22">
-        <v>0.0004345410042600253</v>
+        <v>0.0005734644683115453</v>
       </c>
       <c r="T22">
-        <v>0.0004345410042600253</v>
+        <v>0.0005734644683115452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H23">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I23">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J23">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>57.60137614625849</v>
+        <v>63.57480086161601</v>
       </c>
       <c r="R23">
-        <v>57.60137614625849</v>
+        <v>572.173207754544</v>
       </c>
       <c r="S23">
-        <v>0.001079258995379281</v>
+        <v>0.001078121303739564</v>
       </c>
       <c r="T23">
-        <v>0.001079258995379281</v>
+        <v>0.001078121303739564</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H24">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I24">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J24">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>341.4670865336713</v>
+        <v>368.5223391220555</v>
       </c>
       <c r="R24">
-        <v>341.4670865336713</v>
+        <v>3316.7010520985</v>
       </c>
       <c r="S24">
-        <v>0.006397962156870415</v>
+        <v>0.006249516779081346</v>
       </c>
       <c r="T24">
-        <v>0.006397962156870415</v>
+        <v>0.006249516779081344</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H25">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I25">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J25">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N25">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O25">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P25">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q25">
-        <v>2205.913014181158</v>
+        <v>2870.887031606311</v>
       </c>
       <c r="R25">
-        <v>2205.913014181158</v>
+        <v>25837.9832844568</v>
       </c>
       <c r="S25">
-        <v>0.04133150321850219</v>
+        <v>0.0486853977905756</v>
       </c>
       <c r="T25">
-        <v>0.04133150321850219</v>
+        <v>0.04868539779057559</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H26">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I26">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J26">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N26">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q26">
-        <v>81.54956776851543</v>
+        <v>105.51742118577</v>
       </c>
       <c r="R26">
-        <v>81.54956776851543</v>
+        <v>949.65679067193</v>
       </c>
       <c r="S26">
-        <v>0.00152796878255103</v>
+        <v>0.001789397342252995</v>
       </c>
       <c r="T26">
-        <v>0.00152796878255103</v>
+        <v>0.001789397342252994</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H27">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I27">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J27">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q27">
-        <v>6821.206494042488</v>
+        <v>6934.927707976785</v>
       </c>
       <c r="R27">
-        <v>6821.206494042488</v>
+        <v>62414.34937179107</v>
       </c>
       <c r="S27">
-        <v>0.1278068157493684</v>
+        <v>0.1176046672664876</v>
       </c>
       <c r="T27">
-        <v>0.1278068157493684</v>
+        <v>0.1176046672664876</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H28">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I28">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J28">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N28">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q28">
-        <v>25.15805075810746</v>
+        <v>35.200918447365</v>
       </c>
       <c r="R28">
-        <v>25.15805075810746</v>
+        <v>316.808266026285</v>
       </c>
       <c r="S28">
-        <v>0.0004713785399493391</v>
+        <v>0.0005969481551646744</v>
       </c>
       <c r="T28">
-        <v>0.0004713785399493391</v>
+        <v>0.0005969481551646744</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H29">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I29">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J29">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N29">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q29">
-        <v>62.48444294257783</v>
+        <v>66.17822408604</v>
       </c>
       <c r="R29">
-        <v>62.48444294257783</v>
+        <v>595.60401677436</v>
       </c>
       <c r="S29">
-        <v>0.001170751492912395</v>
+        <v>0.001122270966858627</v>
       </c>
       <c r="T29">
-        <v>0.001170751492912395</v>
+        <v>0.001122270966858627</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H30">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I30">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J30">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N30">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q30">
-        <v>370.4144260565098</v>
+        <v>383.6135325412499</v>
       </c>
       <c r="R30">
-        <v>370.4144260565098</v>
+        <v>3452.52179287125</v>
       </c>
       <c r="S30">
-        <v>0.006940339416972574</v>
+        <v>0.006505437944442181</v>
       </c>
       <c r="T30">
-        <v>0.006940339416972574</v>
+        <v>0.00650543794444218</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H31">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I31">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J31">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N31">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O31">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P31">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q31">
-        <v>2392.915848414944</v>
+        <v>2988.451441899165</v>
       </c>
       <c r="R31">
-        <v>2392.915848414944</v>
+        <v>26896.06297709249</v>
       </c>
       <c r="S31">
-        <v>0.04483531692072644</v>
+        <v>0.05067909173189365</v>
       </c>
       <c r="T31">
-        <v>0.04483531692072644</v>
+        <v>0.05067909173189364</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H32">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I32">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J32">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N32">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q32">
-        <v>71.05023503947244</v>
+        <v>91.42637605183199</v>
       </c>
       <c r="R32">
-        <v>71.05023503947244</v>
+        <v>822.8373844664881</v>
       </c>
       <c r="S32">
-        <v>0.001331246064251256</v>
+        <v>0.001550437003487285</v>
       </c>
       <c r="T32">
-        <v>0.001331246064251256</v>
+        <v>0.001550437003487285</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H33">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I33">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J33">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q33">
-        <v>5942.990722283228</v>
+        <v>6008.821115951046</v>
       </c>
       <c r="R33">
-        <v>5942.990722283228</v>
+        <v>54079.39004355941</v>
       </c>
       <c r="S33">
-        <v>0.1113519611092904</v>
+        <v>0.1018994628008072</v>
       </c>
       <c r="T33">
-        <v>0.1113519611092904</v>
+        <v>0.1018994628008072</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H34">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I34">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J34">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N34">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q34">
-        <v>21.91900543939638</v>
+        <v>30.50010482792844</v>
       </c>
       <c r="R34">
-        <v>21.91900543939638</v>
+        <v>274.500943451356</v>
       </c>
       <c r="S34">
-        <v>0.0004106895593981834</v>
+        <v>0.0005172302914932598</v>
       </c>
       <c r="T34">
-        <v>0.0004106895593981834</v>
+        <v>0.0005172302914932598</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H35">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I35">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J35">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N35">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q35">
-        <v>54.43970432783423</v>
+        <v>57.340628056864</v>
       </c>
       <c r="R35">
-        <v>54.43970432783423</v>
+        <v>516.065652511776</v>
       </c>
       <c r="S35">
-        <v>0.001020019737938498</v>
+        <v>0.000972400256706683</v>
       </c>
       <c r="T35">
-        <v>0.001020019737938498</v>
+        <v>0.0009724002567066829</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H36">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I36">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J36">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N36">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q36">
-        <v>322.7243595947929</v>
+        <v>332.3848772132222</v>
       </c>
       <c r="R36">
-        <v>322.7243595947929</v>
+        <v>2991.463894919</v>
       </c>
       <c r="S36">
-        <v>0.006046785535753595</v>
+        <v>0.005636686427763436</v>
       </c>
       <c r="T36">
-        <v>0.006046785535753595</v>
+        <v>0.005636686427763435</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H37">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I37">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J37">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N37">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O37">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P37">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q37">
-        <v>2084.833042183217</v>
+        <v>2589.366592448142</v>
       </c>
       <c r="R37">
-        <v>2084.833042183217</v>
+        <v>23304.29933203328</v>
       </c>
       <c r="S37">
-        <v>0.03906286559763628</v>
+        <v>0.04391128636936643</v>
       </c>
       <c r="T37">
-        <v>0.03906286559763628</v>
+        <v>0.04391128636936642</v>
       </c>
     </row>
   </sheetData>
